--- a/ch13/practice/sampledata.xlsx
+++ b/ch13/practice/sampledata.xlsx
@@ -372,7 +372,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>168</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3">
@@ -382,7 +382,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>341</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4">
@@ -392,7 +392,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>91</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5">
@@ -402,7 +402,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>399</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6">
@@ -412,7 +412,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>204</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7">
@@ -422,7 +422,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>216</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8">
@@ -432,7 +432,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>282</v>
+        <v>327</v>
       </c>
     </row>
   </sheetData>
